--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055EC55-4D94-42B5-8732-60A266DDEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F94573-5C73-4654-9153-2D39225F8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-9570" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31110" yWindow="-11970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F94573-5C73-4654-9153-2D39225F8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBDA64F-0A18-4984-ADE7-55D4670965AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="-11970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,11 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBDA64F-0A18-4984-ADE7-55D4670965AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BB10B-A9B6-4A9B-AAE9-9E45B48BA073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32550" yWindow="-10530" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BB10B-A9B6-4A9B-AAE9-9E45B48BA073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACF0FE-661A-4CEE-9839-BFF057240681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32550" yWindow="-10530" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36555" yWindow="-10635" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACF0FE-661A-4CEE-9839-BFF057240681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6711A-6128-4AF9-97F8-EEA8690A070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36555" yWindow="-10635" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6711A-6128-4AF9-97F8-EEA8690A070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD50870-BFEF-4ED2-B91C-830D0042EDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD50870-BFEF-4ED2-B91C-830D0042EDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170B171-2AB3-4502-8155-604365DA39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170B171-2AB3-4502-8155-604365DA39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E5A68-F8C4-4E3B-8684-58F824231591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E5A68-F8C4-4E3B-8684-58F824231591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B91638-DC93-4000-8C58-5AA118E4FE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B91638-DC93-4000-8C58-5AA118E4FE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE9914-5395-40F3-AF27-8504194D21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BE9914-5395-40F3-AF27-8504194D21F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA2F82-7379-4E59-B104-AA6798438C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA2F82-7379-4E59-B104-AA6798438C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41986956-9A8A-44F3-B90F-4B287059D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="2952" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA2F82-7379-4E59-B104-AA6798438C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1654B0-6366-431D-8317-5BD577282391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1654B0-6366-431D-8317-5BD577282391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1D09ED-65FC-4648-9A28-F4B03EA1983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1D09ED-65FC-4648-9A28-F4B03EA1983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB3D67-6F9F-4E68-83D9-60F030D6A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB3D67-6F9F-4E68-83D9-60F030D6A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96394F-0807-4A21-9620-6849365310C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2035.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96394F-0807-4A21-9620-6849365310C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6410E-7416-4E31-A27D-2C6A33A729D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
